--- a/experiment/output/results/OfficeHome/RSC/DG/2.xlsx
+++ b/experiment/output/results/OfficeHome/RSC/DG/2.xlsx
@@ -488,23 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250131_12-47-54_resnet50_EVE</t>
+          <t>250215_14-39-44_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77.252</v>
+        <v>76.38</v>
       </c>
       <c r="E2" t="n">
-        <v>74.77500000000001</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>77.252</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
